--- a/xlsx/nor_oda_total_tenyear.xlsx
+++ b/xlsx/nor_oda_total_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Norsk bistand, 2014-2023, løpende priser. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Norsk bistand, 2015-2024, løpende priser. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -404,10 +404,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2">
-        <v>32.04571058054</v>
+        <v>34.48238658563</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -415,10 +415,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3">
-        <v>34.48238658563</v>
+        <v>36.78595405862</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>36.78595405862</v>
+        <v>34.11293368768</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>34.11293368768</v>
+        <v>34.63188134325</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6">
-        <v>34.63188134325</v>
+        <v>37.81063356129</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7">
-        <v>37.81063356129</v>
+        <v>39.4948284947</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8">
-        <v>39.4948284947</v>
+        <v>40.14783542985</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9">
-        <v>40.14783542985</v>
+        <v>49.61199787584</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10">
-        <v>49.61199787584</v>
+        <v>58.58382483068</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11">
-        <v>58.58382483068</v>
+        <v>55.68584200766</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>

--- a/xlsx/nor_oda_total_tenyear.xlsx
+++ b/xlsx/nor_oda_total_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Norsk bistand, 2015-2024, løpende priser. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om total norsk bistand. 2015-2024. Løpende priser. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
